--- a/Work/CHR_annotation/1882 Tour from Simla through Bussahir.xlsx
+++ b/Work/CHR_annotation/1882 Tour from Simla through Bussahir.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="2249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="2331">
   <si>
     <t xml:space="preserve">Geographical Entities (A)</t>
   </si>
@@ -5100,6 +5100,276 @@
     <t xml:space="preserve">Stango</t>
   </si>
   <si>
+    <t xml:space="preserve">Simla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutlej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Babeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deodara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindustan and Thibet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.C. Murray-Aynsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mookiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bos gruniens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evergreen oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apples </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lahoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manglad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huttoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hangerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chota Chin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. W. Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revd. E. Pagell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsopo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horse chestnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wangtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raldung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lapcha Gatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bussahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhobie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunowar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhisti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goorkas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faut de mieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bara Lacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. G. M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cream of tartar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotegurh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomerie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wild olive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chundra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apricots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asserung Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buddhist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladakh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keuntal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leepe, Leet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bawain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama Serai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama Yuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rampore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datnagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chargawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oorni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subathoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dugshai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rarung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsuling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiotro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chittikar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lhakim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ganges, Gunga, Gungagee, Gunga Jee</t>
   </si>
   <si>
@@ -5406,9 +5676,6 @@
     <t xml:space="preserve">Dootie</t>
   </si>
   <si>
-    <t xml:space="preserve">Delhi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mora</t>
   </si>
   <si>
@@ -5598,9 +5865,6 @@
     <t xml:space="preserve">Siay</t>
   </si>
   <si>
-    <t xml:space="preserve">Rampore</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calsi</t>
   </si>
   <si>
@@ -5832,9 +6096,6 @@
     <t xml:space="preserve">Major JP Kennedy</t>
   </si>
   <si>
-    <t xml:space="preserve">Simla</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vivian</t>
   </si>
   <si>
@@ -5847,9 +6108,6 @@
     <t xml:space="preserve">Teranda</t>
   </si>
   <si>
-    <t xml:space="preserve">Chini</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manasawara</t>
   </si>
   <si>
@@ -5880,9 +6138,6 @@
     <t xml:space="preserve">Silk</t>
   </si>
   <si>
-    <t xml:space="preserve">Ladakh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dereas Kara, Black River</t>
   </si>
   <si>
@@ -5895,9 +6150,6 @@
     <t xml:space="preserve">Tooranee</t>
   </si>
   <si>
-    <t xml:space="preserve">peaches</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toghreesoo</t>
   </si>
   <si>
@@ -5913,9 +6165,6 @@
     <t xml:space="preserve">Umbaus</t>
   </si>
   <si>
-    <t xml:space="preserve">apricots</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bokhara</t>
   </si>
   <si>
@@ -5932,9 +6181,6 @@
   </si>
   <si>
     <t xml:space="preserve">Governor, Hakim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pears</t>
   </si>
   <si>
     <t xml:space="preserve">Shayook</t>
@@ -13973,10 +14219,10 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>1949</v>
+        <v>1743</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2051</v>
+        <v>2133</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -13984,10 +14230,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>1943</v>
+        <v>2029</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2052</v>
+        <v>2134</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
@@ -13997,7 +14243,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>2053</v>
+        <v>2135</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -14011,7 +14257,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2054</v>
+        <v>2136</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -14019,10 +14265,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>2055</v>
+        <v>2137</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2056</v>
+        <v>2138</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -14034,7 +14280,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>2057</v>
+        <v>2139</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -14045,10 +14291,10 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2058</v>
+        <v>2140</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2059</v>
+        <v>2141</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -14056,7 +14302,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>2060</v>
+        <v>2142</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
@@ -14078,10 +14324,10 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2061</v>
+        <v>2143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2062</v>
+        <v>2144</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -14089,7 +14335,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>2063</v>
+        <v>2145</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
@@ -14111,7 +14357,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2064</v>
+        <v>2146</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -14136,7 +14382,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>2065</v>
+        <v>2147</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -14186,7 +14432,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2066</v>
+        <v>2148</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -14211,7 +14457,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2067</v>
+        <v>2149</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -14261,7 +14507,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2068</v>
+        <v>2150</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -17554,13 +17800,13 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>2069</v>
+        <v>2151</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>2070</v>
+        <v>2152</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>2071</v>
+        <v>2153</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="5"/>
@@ -17578,28 +17824,28 @@
         <v>241</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2072</v>
+        <v>2154</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2073</v>
+        <v>2155</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2074</v>
+        <v>2156</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>2075</v>
+        <v>2157</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2076</v>
+        <v>2158</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2077</v>
+        <v>2159</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="15" t="s">
-        <v>2078</v>
+        <v>2160</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
@@ -17610,10 +17856,10 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>2079</v>
+        <v>2161</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>2080</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17621,24 +17867,24 @@
         <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2081</v>
+        <v>2163</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2082</v>
+        <v>2164</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2083</v>
+        <v>2165</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="8" t="s">
-        <v>2084</v>
+        <v>2166</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2085</v>
+        <v>2167</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2086</v>
+        <v>2168</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -17657,39 +17903,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>2087</v>
+        <v>2169</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>2088</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2089</v>
+        <v>2171</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2090</v>
+        <v>2172</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2091</v>
+        <v>2173</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>2092</v>
+        <v>2174</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>2093</v>
+        <v>2175</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2094</v>
+        <v>2176</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>2095</v>
+        <v>2177</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>26</v>
@@ -17705,28 +17951,28 @@
         <v>358</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>2096</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2097</v>
+        <v>2179</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2098</v>
+        <v>2180</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>2099</v>
+        <v>2181</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2100</v>
+        <v>2182</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -17747,10 +17993,10 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2101</v>
+        <v>2183</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2102</v>
+        <v>2184</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -17761,7 +18007,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6" t="s">
-        <v>2103</v>
+        <v>2185</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -17788,7 +18034,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="8" t="s">
-        <v>2104</v>
+        <v>2186</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -17807,7 +18053,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1791</v>
+        <v>1741</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -17815,7 +18061,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8" t="s">
-        <v>2105</v>
+        <v>2187</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -17834,7 +18080,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2106</v>
+        <v>2188</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -17842,7 +18088,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8" t="s">
-        <v>2107</v>
+        <v>2189</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -17861,7 +18107,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2108</v>
+        <v>2190</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -17869,7 +18115,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8" t="s">
-        <v>2109</v>
+        <v>2191</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -17888,7 +18134,7 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>2110</v>
+        <v>2192</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -17913,7 +18159,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2111</v>
+        <v>2193</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -17938,7 +18184,7 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>2112</v>
+        <v>2194</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -17963,7 +18209,7 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2113</v>
+        <v>2195</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -17988,7 +18234,7 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2114</v>
+        <v>2196</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -18013,7 +18259,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>2115</v>
+        <v>2197</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -18038,7 +18284,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2116</v>
+        <v>2198</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18063,7 +18309,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2117</v>
+        <v>2199</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -18088,7 +18334,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2118</v>
+        <v>2200</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -18113,7 +18359,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2119</v>
+        <v>2201</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -18138,7 +18384,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2120</v>
+        <v>2202</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -18163,7 +18409,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2121</v>
+        <v>2203</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -18188,7 +18434,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2122</v>
+        <v>2204</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -18213,7 +18459,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2123</v>
+        <v>2205</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -18238,7 +18484,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2124</v>
+        <v>2206</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -18263,7 +18509,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2125</v>
+        <v>2207</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -18288,7 +18534,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2126</v>
+        <v>2208</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -18313,7 +18559,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2127</v>
+        <v>2209</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -18363,7 +18609,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2128</v>
+        <v>2210</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -18413,7 +18659,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2129</v>
+        <v>2211</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -18438,7 +18684,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2130</v>
+        <v>2212</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -18463,7 +18709,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2131</v>
+        <v>2213</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -18488,7 +18734,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2132</v>
+        <v>2214</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -18513,7 +18759,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2133</v>
+        <v>2215</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -18538,7 +18784,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2134</v>
+        <v>2216</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -18563,7 +18809,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2135</v>
+        <v>2217</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -18588,7 +18834,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2136</v>
+        <v>2218</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -18613,7 +18859,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>2137</v>
+        <v>2219</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -18638,7 +18884,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2138</v>
+        <v>2220</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -18663,7 +18909,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2139</v>
+        <v>2221</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -18688,7 +18934,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2140</v>
+        <v>2222</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -18713,7 +18959,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2141</v>
+        <v>2223</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -21285,38 +21531,38 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>2142</v>
+        <v>2224</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2143</v>
+        <v>2225</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2144</v>
+        <v>2226</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2145</v>
+        <v>2227</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2146</v>
+        <v>2228</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2147</v>
+        <v>2229</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>2148</v>
+        <v>2230</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>2149</v>
+        <v>2231</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
@@ -21336,21 +21582,21 @@
         <v>38</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>2150</v>
+        <v>2232</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>2151</v>
+        <v>2233</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="35" t="s">
-        <v>2152</v>
+        <v>2234</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2153</v>
+        <v>2235</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2154</v>
+        <v>2236</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -21376,24 +21622,24 @@
         <v>161</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>2155</v>
+        <v>2237</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2156</v>
+        <v>2238</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>2157</v>
+        <v>2239</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="35" t="s">
-        <v>2158</v>
+        <v>2240</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2159</v>
+        <v>2241</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
@@ -21416,16 +21662,16 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="17" t="s">
-        <v>2160</v>
+        <v>2242</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>2161</v>
+        <v>2243</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>2162</v>
+        <v>2244</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>2163</v>
+        <v>2245</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -21436,7 +21682,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2164</v>
+        <v>2246</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -21465,13 +21711,13 @@
         <v>118</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>2165</v>
+        <v>2247</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="35" t="s">
-        <v>2166</v>
+        <v>2248</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
@@ -21490,19 +21736,19 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="s">
-        <v>2167</v>
+        <v>2249</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>2168</v>
+        <v>2250</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>2169</v>
+        <v>2251</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="35" t="s">
-        <v>2170</v>
+        <v>2252</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -21521,19 +21767,19 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
-        <v>2171</v>
+        <v>2253</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>2172</v>
+        <v>2254</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>2173</v>
+        <v>2255</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="35" t="s">
-        <v>2174</v>
+        <v>2256</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -21552,19 +21798,19 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="17" t="s">
-        <v>2175</v>
+        <v>2257</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>2176</v>
+        <v>2258</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2177</v>
+        <v>2259</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="35" t="s">
-        <v>2178</v>
+        <v>2260</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -21583,19 +21829,19 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="s">
-        <v>2179</v>
+        <v>2261</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>2172</v>
+        <v>2254</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>2180</v>
+        <v>2262</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="35" t="s">
-        <v>2181</v>
+        <v>2263</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -21614,19 +21860,19 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="17" t="s">
-        <v>2182</v>
+        <v>2264</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>2183</v>
+        <v>2265</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>2184</v>
+        <v>2266</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="35" t="s">
-        <v>2185</v>
+        <v>2267</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
@@ -21645,19 +21891,19 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="17" t="s">
-        <v>2186</v>
+        <v>2268</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>2187</v>
+        <v>2269</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>2188</v>
+        <v>2270</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="35" t="s">
-        <v>2189</v>
+        <v>2271</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
@@ -21676,19 +21922,19 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="17" t="s">
-        <v>2190</v>
+        <v>2272</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>2191</v>
+        <v>2273</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>2192</v>
+        <v>2274</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="35" t="s">
-        <v>2193</v>
+        <v>2275</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
@@ -21707,19 +21953,19 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="s">
-        <v>2194</v>
+        <v>2276</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>2195</v>
+        <v>2277</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>2196</v>
+        <v>2278</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="35" t="s">
-        <v>2197</v>
+        <v>2279</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
@@ -21744,7 +21990,7 @@
         <v>1408</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>2198</v>
+        <v>2280</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -21767,13 +22013,13 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="17" t="s">
-        <v>2199</v>
+        <v>2281</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>2200</v>
+        <v>2282</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>2201</v>
+        <v>2283</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -21796,10 +22042,10 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="17" t="s">
-        <v>2202</v>
+        <v>2284</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>2203</v>
+        <v>2285</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>617</v>
@@ -21825,13 +22071,13 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="17" t="s">
-        <v>2204</v>
+        <v>2286</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>2205</v>
+        <v>2287</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>2206</v>
+        <v>2288</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -21854,13 +22100,13 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="17" t="s">
-        <v>2207</v>
+        <v>2289</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>2208</v>
+        <v>2290</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>2209</v>
+        <v>2291</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -21883,10 +22129,10 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="17" t="s">
-        <v>2210</v>
+        <v>2292</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>2211</v>
+        <v>2293</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -21910,10 +22156,10 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="17" t="s">
-        <v>2212</v>
+        <v>2294</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>2213</v>
+        <v>2295</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -21937,10 +22183,10 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="17" t="s">
-        <v>2214</v>
+        <v>2296</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>2215</v>
+        <v>2297</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -21964,10 +22210,10 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="17" t="s">
-        <v>2216</v>
+        <v>2298</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>2217</v>
+        <v>2299</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -21991,7 +22237,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="17" t="s">
-        <v>2218</v>
+        <v>2300</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>1423</v>
@@ -22018,10 +22264,10 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="17" t="s">
-        <v>2219</v>
+        <v>2301</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>2220</v>
+        <v>2302</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -22045,10 +22291,10 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="s">
-        <v>1856</v>
+        <v>1944</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>2221</v>
+        <v>2303</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22072,10 +22318,10 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="17" t="s">
-        <v>2222</v>
+        <v>2304</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>2223</v>
+        <v>2305</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -22099,10 +22345,10 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="17" t="s">
-        <v>2224</v>
+        <v>2306</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>2225</v>
+        <v>2307</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -22126,10 +22372,10 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="17" t="s">
-        <v>2226</v>
+        <v>2308</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>2227</v>
+        <v>2309</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22153,10 +22399,10 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="s">
-        <v>2228</v>
+        <v>2310</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>2229</v>
+        <v>2311</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -22180,10 +22426,10 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="s">
-        <v>2230</v>
+        <v>2312</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>2231</v>
+        <v>2313</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -22207,10 +22453,10 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="17" t="s">
-        <v>2232</v>
+        <v>2314</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>2233</v>
+        <v>2315</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -22237,7 +22483,7 @@
         <v>997</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>2234</v>
+        <v>2316</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -22261,10 +22507,10 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="17" t="s">
-        <v>2235</v>
+        <v>2317</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>2236</v>
+        <v>2318</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -22288,10 +22534,10 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="17" t="s">
-        <v>2237</v>
+        <v>2319</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>2238</v>
+        <v>2320</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -22315,7 +22561,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="17" t="s">
-        <v>2239</v>
+        <v>2321</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -22340,7 +22586,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="17" t="s">
-        <v>2240</v>
+        <v>2322</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -22365,7 +22611,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="17" t="s">
-        <v>2241</v>
+        <v>2323</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -22390,7 +22636,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="17" t="s">
-        <v>2242</v>
+        <v>2324</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -22415,7 +22661,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="17" t="s">
-        <v>2243</v>
+        <v>2325</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -22440,7 +22686,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="17" t="s">
-        <v>2244</v>
+        <v>2326</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -22465,7 +22711,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="17" t="s">
-        <v>2245</v>
+        <v>2327</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -22515,7 +22761,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="17" t="s">
-        <v>2246</v>
+        <v>2328</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -22540,7 +22786,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="17" t="s">
-        <v>2247</v>
+        <v>2329</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -22565,7 +22811,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2248</v>
+        <v>2330</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -49603,8 +49849,8 @@
   </sheetPr>
   <dimension ref="B3:V178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49781,62 +50027,126 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="6"/>
+    <row r="6" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1695</v>
+      </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9"/>
+      <c r="L6" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>1628</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>1697</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>1699</v>
+      </c>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+    <row r="7" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1703</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="15"/>
+      <c r="H7" s="8" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>1706</v>
+      </c>
       <c r="K7" s="15"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>1707</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>1708</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>1710</v>
+      </c>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+    <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1713</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="15"/>
+      <c r="H8" s="6" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>1716</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="6"/>
       <c r="M8" s="18"/>
@@ -49847,19 +50157,35 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>1717</v>
+      </c>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+    <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1720</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>1722</v>
+      </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="18"/>
@@ -49870,19 +50196,33 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="U9" s="6" t="s">
+        <v>1723</v>
+      </c>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+    <row r="10" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1662</v>
+      </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>1724</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="8" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1726</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="8"/>
@@ -49893,19 +50233,31 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>1727</v>
+      </c>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+    <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1729</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1732</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="8"/>
@@ -49916,19 +50268,31 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="U11" s="6" t="s">
+        <v>1733</v>
+      </c>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+    <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1734</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1736</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="8"/>
@@ -49939,19 +50303,29 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="U12" s="6" t="s">
+        <v>1737</v>
+      </c>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+    <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1738</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>1739</v>
+      </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>1740</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="8"/>
@@ -49965,16 +50339,22 @@
       <c r="U13" s="6"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5"/>
+    <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>1741</v>
+      </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>1742</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="8"/>
@@ -49988,16 +50368,22 @@
       <c r="U14" s="6"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5"/>
+    <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>1743</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>1744</v>
+      </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>1745</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="8"/>
@@ -50011,16 +50397,22 @@
       <c r="U15" s="6"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
+    <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="s">
+        <v>1676</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>1372</v>
+      </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>1746</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="8"/>
@@ -50034,14 +50426,18 @@
       <c r="U16" s="6"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5"/>
+    <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
+        <v>1747</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>1748</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -50057,14 +50453,18 @@
       <c r="U17" s="6"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5"/>
+    <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5" t="s">
+        <v>1749</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>1750</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -50080,14 +50480,18 @@
       <c r="U18" s="6"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5"/>
+    <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5" t="s">
+        <v>1751</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>1752</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -50103,8 +50507,10 @@
       <c r="U19" s="6"/>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5"/>
+    <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5" t="s">
+        <v>1753</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -50126,8 +50532,10 @@
       <c r="U20" s="6"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5"/>
+    <row r="21" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5" t="s">
+        <v>1754</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -50149,8 +50557,10 @@
       <c r="U21" s="6"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5"/>
+    <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5" t="s">
+        <v>1755</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -50172,8 +50582,10 @@
       <c r="U22" s="6"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5"/>
+    <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5" t="s">
+        <v>1756</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -50195,8 +50607,10 @@
       <c r="U23" s="6"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5"/>
+    <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5" t="s">
+        <v>1757</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -50218,8 +50632,10 @@
       <c r="U24" s="6"/>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5"/>
+    <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5" t="s">
+        <v>864</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -50241,8 +50657,10 @@
       <c r="U25" s="6"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5"/>
+    <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5" t="s">
+        <v>1758</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -50264,8 +50682,10 @@
       <c r="U26" s="6"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5"/>
+    <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5" t="s">
+        <v>1759</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -50287,8 +50707,10 @@
       <c r="U27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5"/>
+    <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="s">
+        <v>1760</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -50310,8 +50732,10 @@
       <c r="U28" s="6"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5"/>
+    <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="s">
+        <v>1601</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -50333,8 +50757,10 @@
       <c r="U29" s="6"/>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5"/>
+    <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5" t="s">
+        <v>1589</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -50356,8 +50782,10 @@
       <c r="U30" s="6"/>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5"/>
+    <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="s">
+        <v>1761</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -50379,8 +50807,10 @@
       <c r="U31" s="6"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="5"/>
+    <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="5" t="s">
+        <v>1762</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -50402,8 +50832,10 @@
       <c r="U32" s="6"/>
       <c r="V32" s="8"/>
     </row>
-    <row r="33" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="5"/>
+    <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5" t="s">
+        <v>1763</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -50425,8 +50857,10 @@
       <c r="U33" s="6"/>
       <c r="V33" s="8"/>
     </row>
-    <row r="34" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="5"/>
+    <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5" t="s">
+        <v>1764</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -50448,8 +50882,10 @@
       <c r="U34" s="6"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="5"/>
+    <row r="35" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="5" t="s">
+        <v>1584</v>
+      </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -50471,8 +50907,10 @@
       <c r="U35" s="6"/>
       <c r="V35" s="8"/>
     </row>
-    <row r="36" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="5"/>
+    <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5" t="s">
+        <v>1765</v>
+      </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -50494,8 +50932,10 @@
       <c r="U36" s="6"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5"/>
+    <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="5" t="s">
+        <v>1766</v>
+      </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -50517,8 +50957,10 @@
       <c r="U37" s="6"/>
       <c r="V37" s="8"/>
     </row>
-    <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5"/>
+    <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5" t="s">
+        <v>1193</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -50540,8 +50982,10 @@
       <c r="U38" s="6"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="5"/>
+    <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5" t="s">
+        <v>1767</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -50563,8 +51007,10 @@
       <c r="U39" s="6"/>
       <c r="V39" s="8"/>
     </row>
-    <row r="40" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5"/>
+    <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5" t="s">
+        <v>1201</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -50586,8 +51032,10 @@
       <c r="U40" s="6"/>
       <c r="V40" s="8"/>
     </row>
-    <row r="41" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="5"/>
+    <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="5" t="s">
+        <v>1576</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -50609,8 +51057,10 @@
       <c r="U41" s="6"/>
       <c r="V41" s="8"/>
     </row>
-    <row r="42" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="5"/>
+    <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="5" t="s">
+        <v>1768</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -50632,8 +51082,10 @@
       <c r="U42" s="6"/>
       <c r="V42" s="8"/>
     </row>
-    <row r="43" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="5"/>
+    <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="5" t="s">
+        <v>1769</v>
+      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -50655,8 +51107,10 @@
       <c r="U43" s="6"/>
       <c r="V43" s="8"/>
     </row>
-    <row r="44" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="5"/>
+    <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="5" t="s">
+        <v>1770</v>
+      </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -50678,8 +51132,10 @@
       <c r="U44" s="6"/>
       <c r="V44" s="8"/>
     </row>
-    <row r="45" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="5"/>
+    <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="5" t="s">
+        <v>1771</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -50701,8 +51157,10 @@
       <c r="U45" s="6"/>
       <c r="V45" s="8"/>
     </row>
-    <row r="46" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="5"/>
+    <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="5" t="s">
+        <v>1772</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -50724,8 +51182,10 @@
       <c r="U46" s="6"/>
       <c r="V46" s="8"/>
     </row>
-    <row r="47" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="5"/>
+    <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="5" t="s">
+        <v>1773</v>
+      </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -50747,8 +51207,10 @@
       <c r="U47" s="6"/>
       <c r="V47" s="8"/>
     </row>
-    <row r="48" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="5"/>
+    <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="5" t="s">
+        <v>1774</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -50770,8 +51232,10 @@
       <c r="U48" s="6"/>
       <c r="V48" s="8"/>
     </row>
-    <row r="49" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5"/>
+    <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="5" t="s">
+        <v>1775</v>
+      </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -50793,8 +51257,10 @@
       <c r="U49" s="6"/>
       <c r="V49" s="8"/>
     </row>
-    <row r="50" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="5"/>
+    <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="5" t="s">
+        <v>1776</v>
+      </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -50816,8 +51282,10 @@
       <c r="U50" s="6"/>
       <c r="V50" s="8"/>
     </row>
-    <row r="51" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="5"/>
+    <row r="51" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="5" t="s">
+        <v>1777</v>
+      </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -50839,8 +51307,10 @@
       <c r="U51" s="6"/>
       <c r="V51" s="8"/>
     </row>
-    <row r="52" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5"/>
+    <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5" t="s">
+        <v>1778</v>
+      </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -53350,45 +53820,45 @@
         <v>259</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1689</v>
+        <v>1779</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1690</v>
+        <v>1780</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1691</v>
+        <v>1781</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1692</v>
+        <v>1782</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
         <v>1624</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1693</v>
+        <v>1783</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1694</v>
+        <v>1784</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>1695</v>
+        <v>1785</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>1696</v>
+        <v>1786</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>1697</v>
+        <v>1787</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>1698</v>
+        <v>1788</v>
       </c>
       <c r="V6" s="8"/>
     </row>
@@ -53400,18 +53870,18 @@
         <v>323</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1699</v>
+        <v>1789</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1700</v>
+        <v>1790</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>1701</v>
+        <v>1791</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1702</v>
+        <v>1792</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>365</v>
@@ -53420,7 +53890,7 @@
         <v>344</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>1703</v>
+        <v>1793</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="5"/>
@@ -53431,39 +53901,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>1704</v>
+        <v>1794</v>
       </c>
       <c r="V7" s="8"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>1705</v>
+        <v>1795</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1706</v>
+        <v>1796</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1707</v>
+        <v>1797</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1708</v>
+        <v>1798</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>1709</v>
+        <v>1799</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>343</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>1711</v>
+        <v>1801</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>1712</v>
+        <v>1802</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="5"/>
@@ -53474,33 +53944,33 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>1713</v>
+        <v>1803</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1714</v>
+        <v>1804</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1715</v>
+        <v>1805</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1716</v>
+        <v>1806</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1717</v>
+        <v>1807</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>1718</v>
+        <v>1808</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1719</v>
+        <v>1809</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1720</v>
+        <v>1810</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
@@ -53521,29 +53991,29 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1721</v>
+        <v>1811</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1722</v>
+        <v>1812</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1723</v>
+        <v>1813</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>1724</v>
+        <v>1814</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1725</v>
+        <v>1815</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1726</v>
+        <v>1816</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>1727</v>
+        <v>1817</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -53560,22 +54030,22 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1728</v>
+        <v>1818</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1729</v>
+        <v>1819</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1730</v>
+        <v>1820</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>1731</v>
+        <v>1821</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1732</v>
+        <v>1822</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>88</v>
@@ -53593,35 +54063,35 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>1733</v>
+        <v>1823</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1734</v>
+        <v>1824</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1735</v>
+        <v>1825</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1736</v>
+        <v>1826</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>1737</v>
+        <v>1827</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1738</v>
+        <v>1828</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1739</v>
+        <v>1829</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>1740</v>
+        <v>1830</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="5"/>
@@ -53632,31 +54102,31 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>1741</v>
+        <v>1831</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1742</v>
+        <v>1832</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1743</v>
+        <v>1833</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1744</v>
+        <v>1834</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>1745</v>
+        <v>1835</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1746</v>
+        <v>1836</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1747</v>
+        <v>1837</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -53669,31 +54139,31 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>1748</v>
+        <v>1838</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1749</v>
+        <v>1839</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1750</v>
+        <v>1840</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1751</v>
+        <v>1841</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>1752</v>
+        <v>1842</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1753</v>
+        <v>1843</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1754</v>
+        <v>1844</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -53710,22 +54180,22 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1755</v>
+        <v>1845</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1756</v>
+        <v>1846</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1757</v>
+        <v>1847</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>1758</v>
+        <v>1848</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1759</v>
+        <v>1849</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -53743,22 +54213,22 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>1760</v>
+        <v>1850</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1761</v>
+        <v>1851</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1762</v>
+        <v>1852</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>1763</v>
+        <v>1853</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1764</v>
+        <v>1854</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -53776,22 +54246,22 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>1765</v>
+        <v>1855</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1408</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1766</v>
+        <v>1856</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>1767</v>
+        <v>1857</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1768</v>
+        <v>1858</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -53809,20 +54279,20 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>1769</v>
+        <v>1859</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1770</v>
+        <v>1860</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>1771</v>
+        <v>1861</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1772</v>
+        <v>1862</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -53840,20 +54310,20 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>1773</v>
+        <v>1863</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1774</v>
+        <v>1864</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>1775</v>
+        <v>1865</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1776</v>
+        <v>1866</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -53871,20 +54341,20 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1777</v>
+        <v>1867</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1778</v>
+        <v>1868</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>1779</v>
+        <v>1869</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1780</v>
+        <v>1870</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -53902,20 +54372,20 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>1781</v>
+        <v>1871</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1782</v>
+        <v>1872</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>1783</v>
+        <v>1873</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1784</v>
+        <v>1874</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -53933,7 +54403,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>1785</v>
+        <v>1875</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -53941,7 +54411,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>1786</v>
+        <v>1876</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
@@ -53960,7 +54430,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>1787</v>
+        <v>1877</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -53968,7 +54438,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>1788</v>
+        <v>1878</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
@@ -53987,7 +54457,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>1789</v>
+        <v>1879</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -53995,7 +54465,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>1790</v>
+        <v>1880</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
@@ -54014,7 +54484,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>1791</v>
+        <v>1741</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -54022,7 +54492,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>1792</v>
+        <v>1881</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
@@ -54041,7 +54511,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>1793</v>
+        <v>1882</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -54049,7 +54519,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>1794</v>
+        <v>1883</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
@@ -54076,7 +54546,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>1795</v>
+        <v>1884</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
@@ -54095,7 +54565,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>1796</v>
+        <v>1885</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -54103,7 +54573,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>1797</v>
+        <v>1886</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
@@ -54122,7 +54592,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>1798</v>
+        <v>1887</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -54130,7 +54600,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>1799</v>
+        <v>1888</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
@@ -54149,7 +54619,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>1800</v>
+        <v>1889</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -54157,7 +54627,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>1801</v>
+        <v>1890</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
@@ -54176,7 +54646,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>1802</v>
+        <v>1891</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -54184,7 +54654,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>1803</v>
+        <v>1892</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
@@ -54203,7 +54673,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>1804</v>
+        <v>1893</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -54211,7 +54681,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>1805</v>
+        <v>1894</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
@@ -54230,7 +54700,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>1806</v>
+        <v>1895</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -54238,7 +54708,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>1807</v>
+        <v>1896</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -54257,7 +54727,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>1808</v>
+        <v>1897</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -54265,7 +54735,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>1809</v>
+        <v>1898</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
@@ -54284,7 +54754,7 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
-        <v>1810</v>
+        <v>1899</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -54292,7 +54762,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>1811</v>
+        <v>1900</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
@@ -54311,7 +54781,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>1812</v>
+        <v>1901</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -54319,7 +54789,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>1813</v>
+        <v>1902</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
@@ -54338,7 +54808,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>1814</v>
+        <v>1903</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -54346,7 +54816,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>1815</v>
+        <v>1904</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
@@ -54365,7 +54835,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>1816</v>
+        <v>1905</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -54373,7 +54843,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
-        <v>1817</v>
+        <v>1906</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
@@ -54392,7 +54862,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>1818</v>
+        <v>1907</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -54417,7 +54887,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>1819</v>
+        <v>1908</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -54442,7 +54912,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>1820</v>
+        <v>1909</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -54467,7 +54937,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>1821</v>
+        <v>1910</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -54492,7 +54962,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>1822</v>
+        <v>1911</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -54517,7 +54987,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1823</v>
+        <v>1912</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -54542,7 +55012,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>1824</v>
+        <v>1913</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -54567,7 +55037,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>1825</v>
+        <v>1914</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -54592,7 +55062,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>1826</v>
+        <v>1915</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -54617,7 +55087,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>1827</v>
+        <v>1916</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -54717,7 +55187,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>1828</v>
+        <v>1917</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -54742,7 +55212,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>1829</v>
+        <v>1918</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -54767,7 +55237,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>1830</v>
+        <v>1919</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -54817,7 +55287,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>1831</v>
+        <v>1920</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -54842,7 +55312,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>1832</v>
+        <v>1921</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -54867,7 +55337,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>1833</v>
+        <v>1922</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -54892,7 +55362,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>1834</v>
+        <v>1923</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -54917,7 +55387,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>1835</v>
+        <v>1924</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -54942,7 +55412,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>1836</v>
+        <v>1925</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -54967,7 +55437,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>1837</v>
+        <v>1926</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -54992,7 +55462,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>1838</v>
+        <v>1927</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -55092,7 +55562,7 @@
     </row>
     <row r="67" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5" t="s">
-        <v>1839</v>
+        <v>1928</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -55117,7 +55587,7 @@
     </row>
     <row r="68" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="5" t="s">
-        <v>1840</v>
+        <v>1929</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -55142,7 +55612,7 @@
     </row>
     <row r="69" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="s">
-        <v>1841</v>
+        <v>1930</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -55167,7 +55637,7 @@
     </row>
     <row r="70" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="5" t="s">
-        <v>1842</v>
+        <v>1931</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -55192,7 +55662,7 @@
     </row>
     <row r="71" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="5" t="s">
-        <v>1843</v>
+        <v>1932</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -55217,7 +55687,7 @@
     </row>
     <row r="72" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="5" t="s">
-        <v>1844</v>
+        <v>1933</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -55242,7 +55712,7 @@
     </row>
     <row r="73" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="5" t="s">
-        <v>1845</v>
+        <v>1934</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -55267,7 +55737,7 @@
     </row>
     <row r="74" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5" t="s">
-        <v>1797</v>
+        <v>1886</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -55292,7 +55762,7 @@
     </row>
     <row r="75" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="5" t="s">
-        <v>1846</v>
+        <v>1935</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -55317,7 +55787,7 @@
     </row>
     <row r="76" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="5" t="s">
-        <v>1847</v>
+        <v>1936</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -55342,7 +55812,7 @@
     </row>
     <row r="77" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="5" t="s">
-        <v>1848</v>
+        <v>1937</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -55367,7 +55837,7 @@
     </row>
     <row r="78" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="5" t="s">
-        <v>1849</v>
+        <v>1938</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -55392,7 +55862,7 @@
     </row>
     <row r="79" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="5" t="s">
-        <v>1850</v>
+        <v>1939</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -55417,7 +55887,7 @@
     </row>
     <row r="80" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>1851</v>
+        <v>1940</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -55442,7 +55912,7 @@
     </row>
     <row r="81" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="5" t="s">
-        <v>1852</v>
+        <v>1941</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -55467,7 +55937,7 @@
     </row>
     <row r="82" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="5" t="s">
-        <v>1853</v>
+        <v>1942</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -55492,7 +55962,7 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="5" t="s">
-        <v>1854</v>
+        <v>1943</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -55517,7 +55987,7 @@
     </row>
     <row r="84" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="5" t="s">
-        <v>1855</v>
+        <v>1753</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -55567,7 +56037,7 @@
     </row>
     <row r="86" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="5" t="s">
-        <v>1856</v>
+        <v>1944</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -55592,7 +56062,7 @@
     </row>
     <row r="87" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="5" t="s">
-        <v>1857</v>
+        <v>1945</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -55617,7 +56087,7 @@
     </row>
     <row r="88" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="5" t="s">
-        <v>1858</v>
+        <v>1946</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -55642,7 +56112,7 @@
     </row>
     <row r="89" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="5" t="s">
-        <v>1859</v>
+        <v>1947</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -55667,7 +56137,7 @@
     </row>
     <row r="90" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="5" t="s">
-        <v>1860</v>
+        <v>1948</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -55692,7 +56162,7 @@
     </row>
     <row r="91" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="5" t="s">
-        <v>1861</v>
+        <v>1949</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -55717,7 +56187,7 @@
     </row>
     <row r="92" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="5" t="s">
-        <v>1862</v>
+        <v>1950</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -55742,7 +56212,7 @@
     </row>
     <row r="93" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="5" t="s">
-        <v>1863</v>
+        <v>1951</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -55767,7 +56237,7 @@
     </row>
     <row r="94" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="5" t="s">
-        <v>1864</v>
+        <v>1952</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -55792,7 +56262,7 @@
     </row>
     <row r="95" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="5" t="s">
-        <v>1865</v>
+        <v>1953</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -55817,7 +56287,7 @@
     </row>
     <row r="96" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="5" t="s">
-        <v>1866</v>
+        <v>1954</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -55867,7 +56337,7 @@
     </row>
     <row r="98" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>1867</v>
+        <v>1955</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -55892,7 +56362,7 @@
     </row>
     <row r="99" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>1868</v>
+        <v>1956</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -55917,7 +56387,7 @@
     </row>
     <row r="100" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
-        <v>1869</v>
+        <v>1957</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -55942,7 +56412,7 @@
     </row>
     <row r="101" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="5" t="s">
-        <v>1870</v>
+        <v>1958</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -55967,7 +56437,7 @@
     </row>
     <row r="102" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="5" t="s">
-        <v>1871</v>
+        <v>1959</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -56017,7 +56487,7 @@
     </row>
     <row r="104" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>1872</v>
+        <v>1960</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -56042,7 +56512,7 @@
     </row>
     <row r="105" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="5" t="s">
-        <v>1873</v>
+        <v>1961</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -56067,7 +56537,7 @@
     </row>
     <row r="106" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="5" t="s">
-        <v>1874</v>
+        <v>1962</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -56092,7 +56562,7 @@
     </row>
     <row r="107" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="5" t="s">
-        <v>1875</v>
+        <v>1963</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -56117,7 +56587,7 @@
     </row>
     <row r="108" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="5" t="s">
-        <v>1876</v>
+        <v>1964</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -56142,7 +56612,7 @@
     </row>
     <row r="109" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="5" t="s">
-        <v>1877</v>
+        <v>1965</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -56167,7 +56637,7 @@
     </row>
     <row r="110" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="5" t="s">
-        <v>1878</v>
+        <v>1966</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -56192,7 +56662,7 @@
     </row>
     <row r="111" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="5" t="s">
-        <v>1879</v>
+        <v>1967</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -56217,7 +56687,7 @@
     </row>
     <row r="112" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="5" t="s">
-        <v>1880</v>
+        <v>1968</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -56242,7 +56712,7 @@
     </row>
     <row r="113" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="5" t="s">
-        <v>1881</v>
+        <v>1969</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -56267,7 +56737,7 @@
     </row>
     <row r="114" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>1882</v>
+        <v>1970</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -56292,7 +56762,7 @@
     </row>
     <row r="115" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="5" t="s">
-        <v>1883</v>
+        <v>1971</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -56317,7 +56787,7 @@
     </row>
     <row r="116" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="5" t="s">
-        <v>1884</v>
+        <v>1972</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -56342,7 +56812,7 @@
     </row>
     <row r="117" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>1885</v>
+        <v>1973</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -56392,7 +56862,7 @@
     </row>
     <row r="119" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>1886</v>
+        <v>1974</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -56417,7 +56887,7 @@
     </row>
     <row r="120" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="5" t="s">
-        <v>1887</v>
+        <v>1975</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -56442,7 +56912,7 @@
     </row>
     <row r="121" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>1888</v>
+        <v>1976</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -56467,7 +56937,7 @@
     </row>
     <row r="122" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="5" t="s">
-        <v>1889</v>
+        <v>1977</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -56492,7 +56962,7 @@
     </row>
     <row r="123" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="5" t="s">
-        <v>1890</v>
+        <v>1978</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -56517,7 +56987,7 @@
     </row>
     <row r="124" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="5" t="s">
-        <v>1891</v>
+        <v>1979</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -56542,7 +57012,7 @@
     </row>
     <row r="125" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="5" t="s">
-        <v>1892</v>
+        <v>1980</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -56567,7 +57037,7 @@
     </row>
     <row r="126" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="5" t="s">
-        <v>1893</v>
+        <v>1981</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -56592,7 +57062,7 @@
     </row>
     <row r="127" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="5" t="s">
-        <v>1894</v>
+        <v>1982</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -56617,7 +57087,7 @@
     </row>
     <row r="128" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="5" t="s">
-        <v>1895</v>
+        <v>1983</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -56642,7 +57112,7 @@
     </row>
     <row r="129" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="5" t="s">
-        <v>1896</v>
+        <v>1984</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -56667,7 +57137,7 @@
     </row>
     <row r="130" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="5" t="s">
-        <v>1897</v>
+        <v>1985</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -56692,7 +57162,7 @@
     </row>
     <row r="131" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="5" t="s">
-        <v>1898</v>
+        <v>1986</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -56717,7 +57187,7 @@
     </row>
     <row r="132" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>1899</v>
+        <v>1987</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -56742,7 +57212,7 @@
     </row>
     <row r="133" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>1900</v>
+        <v>1988</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -56767,7 +57237,7 @@
     </row>
     <row r="134" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>1901</v>
+        <v>1989</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -56792,7 +57262,7 @@
     </row>
     <row r="135" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>1902</v>
+        <v>1990</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -56817,7 +57287,7 @@
     </row>
     <row r="136" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>1903</v>
+        <v>1991</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -56842,7 +57312,7 @@
     </row>
     <row r="137" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="5" t="s">
-        <v>1904</v>
+        <v>1992</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -56867,7 +57337,7 @@
     </row>
     <row r="138" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="5" t="s">
-        <v>1905</v>
+        <v>1993</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -56892,7 +57362,7 @@
     </row>
     <row r="139" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="5" t="s">
-        <v>1906</v>
+        <v>1994</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -56917,7 +57387,7 @@
     </row>
     <row r="140" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="5" t="s">
-        <v>1907</v>
+        <v>1995</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -56942,7 +57412,7 @@
     </row>
     <row r="141" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="5" t="s">
-        <v>1797</v>
+        <v>1886</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -56967,7 +57437,7 @@
     </row>
     <row r="142" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="5" t="s">
-        <v>1908</v>
+        <v>1996</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -56992,7 +57462,7 @@
     </row>
     <row r="143" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="5" t="s">
-        <v>1842</v>
+        <v>1931</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -57017,7 +57487,7 @@
     </row>
     <row r="144" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="5" t="s">
-        <v>1909</v>
+        <v>1997</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -57042,7 +57512,7 @@
     </row>
     <row r="145" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="5" t="s">
-        <v>1910</v>
+        <v>1998</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -57067,7 +57537,7 @@
     </row>
     <row r="146" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="5" t="s">
-        <v>1911</v>
+        <v>1999</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -57117,7 +57587,7 @@
     </row>
     <row r="148" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="5" t="s">
-        <v>1912</v>
+        <v>2000</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -57142,7 +57612,7 @@
     </row>
     <row r="149" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="5" t="s">
-        <v>1913</v>
+        <v>2001</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -57167,7 +57637,7 @@
     </row>
     <row r="150" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="5" t="s">
-        <v>1914</v>
+        <v>2002</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -57192,7 +57662,7 @@
     </row>
     <row r="151" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="5" t="s">
-        <v>1915</v>
+        <v>2003</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -57217,7 +57687,7 @@
     </row>
     <row r="152" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="5" t="s">
-        <v>1916</v>
+        <v>2004</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -57242,7 +57712,7 @@
     </row>
     <row r="153" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="5" t="s">
-        <v>1917</v>
+        <v>2005</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -57267,7 +57737,7 @@
     </row>
     <row r="154" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="5" t="s">
-        <v>1820</v>
+        <v>1909</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -57292,7 +57762,7 @@
     </row>
     <row r="155" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="5" t="s">
-        <v>1918</v>
+        <v>2006</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -57317,7 +57787,7 @@
     </row>
     <row r="156" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="5" t="s">
-        <v>1919</v>
+        <v>2007</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -57367,7 +57837,7 @@
     </row>
     <row r="158" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="5" t="s">
-        <v>1920</v>
+        <v>2008</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -57392,7 +57862,7 @@
     </row>
     <row r="159" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="5" t="s">
-        <v>1921</v>
+        <v>2009</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -57442,7 +57912,7 @@
     </row>
     <row r="161" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="5" t="s">
-        <v>1789</v>
+        <v>1879</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -57467,7 +57937,7 @@
     </row>
     <row r="162" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="5" t="s">
-        <v>1922</v>
+        <v>2010</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -57492,7 +57962,7 @@
     </row>
     <row r="163" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="5" t="s">
-        <v>1923</v>
+        <v>2011</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -57517,7 +57987,7 @@
     </row>
     <row r="164" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="5" t="s">
-        <v>1924</v>
+        <v>2012</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -57542,7 +58012,7 @@
     </row>
     <row r="165" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="5" t="s">
-        <v>1925</v>
+        <v>2013</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -57567,7 +58037,7 @@
     </row>
     <row r="166" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="5" t="s">
-        <v>1926</v>
+        <v>2014</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -57592,7 +58062,7 @@
     </row>
     <row r="167" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="5" t="s">
-        <v>1927</v>
+        <v>2015</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -57617,7 +58087,7 @@
     </row>
     <row r="168" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="5" t="s">
-        <v>1928</v>
+        <v>2016</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -57642,7 +58112,7 @@
     </row>
     <row r="169" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="5" t="s">
-        <v>1929</v>
+        <v>2017</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -57667,7 +58137,7 @@
     </row>
     <row r="170" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="28" t="s">
-        <v>1930</v>
+        <v>2018</v>
       </c>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
@@ -57901,7 +58371,7 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>1931</v>
+        <v>2019</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -57910,7 +58380,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>1932</v>
+        <v>2020</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
@@ -57930,7 +58400,7 @@
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>1933</v>
+        <v>1689</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -57939,7 +58409,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>1934</v>
+        <v>2021</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -58007,7 +58477,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1935</v>
+        <v>2022</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -58032,7 +58502,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1936</v>
+        <v>2023</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -58057,7 +58527,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1937</v>
+        <v>2024</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -58082,7 +58552,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1938</v>
+        <v>1761</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -61490,55 +61960,55 @@
         <v>1129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1939</v>
+        <v>2025</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1940</v>
+        <v>2026</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>1941</v>
+        <v>2027</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>1942</v>
+        <v>2028</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1943</v>
+        <v>2029</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>1944</v>
+        <v>2030</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>1945</v>
+        <v>2031</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>1946</v>
+        <v>2032</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>1947</v>
+        <v>2033</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>1948</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>1949</v>
+        <v>1743</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1950</v>
+        <v>2035</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1951</v>
+        <v>2036</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -61547,10 +62017,10 @@
         <v>992</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1952</v>
+        <v>2037</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>1953</v>
+        <v>2038</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>30</v>
@@ -61565,7 +62035,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>1954</v>
+        <v>1717</v>
       </c>
       <c r="V7" s="8"/>
     </row>
@@ -61574,22 +62044,22 @@
         <v>1467</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1955</v>
+        <v>2039</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1956</v>
+        <v>2040</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>1957</v>
+        <v>2041</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1958</v>
+        <v>2042</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>1959</v>
+        <v>2043</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>486</v>
@@ -61604,32 +62074,32 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>1960</v>
+        <v>1737</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1961</v>
+        <v>2044</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1962</v>
+        <v>2045</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>1963</v>
+        <v>2046</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>1964</v>
+        <v>2047</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>1965</v>
+        <v>2048</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>1966</v>
+        <v>2049</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="18"/>
@@ -61641,7 +62111,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>1967</v>
+        <v>1710</v>
       </c>
       <c r="V9" s="8"/>
     </row>
@@ -61650,20 +62120,20 @@
         <v>1101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1968</v>
+        <v>2050</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="8" t="s">
-        <v>1969</v>
+        <v>2051</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1970</v>
+        <v>2052</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1971</v>
+        <v>2053</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -61676,16 +62146,16 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>1972</v>
+        <v>2054</v>
       </c>
       <c r="V10" s="8"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1824</v>
+        <v>1913</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1973</v>
+        <v>2055</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -61693,10 +62163,10 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="5" t="s">
-        <v>1974</v>
+        <v>2056</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1975</v>
+        <v>2057</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -61709,16 +62179,16 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>1976</v>
+        <v>2058</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1977</v>
+        <v>2059</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1978</v>
+        <v>2060</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -61726,10 +62196,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="5" t="s">
-        <v>1979</v>
+        <v>2061</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1980</v>
+        <v>2062</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -61742,16 +62212,16 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>1981</v>
+        <v>2063</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1982</v>
+        <v>2064</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1983</v>
+        <v>2065</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -61759,10 +62229,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>1984</v>
+        <v>2066</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1985</v>
+        <v>2067</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -61775,16 +62245,16 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>1986</v>
+        <v>2068</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1987</v>
+        <v>2069</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1988</v>
+        <v>2070</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -61792,10 +62262,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="5" t="s">
-        <v>1989</v>
+        <v>2071</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1990</v>
+        <v>2072</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -61808,16 +62278,16 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6" t="s">
-        <v>1991</v>
+        <v>2073</v>
       </c>
       <c r="V14" s="8"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1992</v>
+        <v>2074</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1988</v>
+        <v>2070</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -61825,7 +62295,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>1993</v>
+        <v>2075</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -61839,16 +62309,16 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6" t="s">
-        <v>1994</v>
+        <v>2076</v>
       </c>
       <c r="V15" s="8"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>1995</v>
+        <v>2077</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1996</v>
+        <v>2078</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -61856,7 +62326,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>1997</v>
+        <v>2079</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -61870,13 +62340,13 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>1998</v>
+        <v>2080</v>
       </c>
       <c r="V16" s="8"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>1999</v>
+        <v>2081</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1644</v>
@@ -61887,7 +62357,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
       <c r="I17" s="5" t="s">
-        <v>2000</v>
+        <v>2082</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -61905,10 +62375,10 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2001</v>
+        <v>2083</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2002</v>
+        <v>2084</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -61916,7 +62386,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
       <c r="I18" s="5" t="s">
-        <v>2003</v>
+        <v>2085</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -61934,10 +62404,10 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2004</v>
+        <v>2086</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2005</v>
+        <v>2087</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -61945,7 +62415,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
       <c r="I19" s="5" t="s">
-        <v>2006</v>
+        <v>2088</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -61963,7 +62433,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1791</v>
+        <v>1741</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -61988,7 +62458,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2007</v>
+        <v>2089</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -62013,7 +62483,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2008</v>
+        <v>2090</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -62038,7 +62508,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2009</v>
+        <v>2091</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -62063,7 +62533,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2010</v>
+        <v>2092</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -62088,7 +62558,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2011</v>
+        <v>2093</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -62113,7 +62583,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2012</v>
+        <v>2094</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -62138,7 +62608,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2013</v>
+        <v>2095</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -62163,7 +62633,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2014</v>
+        <v>2096</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -62188,7 +62658,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2015</v>
+        <v>2097</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -62213,7 +62683,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2016</v>
+        <v>2098</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -62238,7 +62708,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2017</v>
+        <v>2099</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -62263,7 +62733,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2018</v>
+        <v>2100</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -62288,7 +62758,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>2019</v>
+        <v>2101</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -62313,7 +62783,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2020</v>
+        <v>2102</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -62363,7 +62833,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2021</v>
+        <v>2103</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -62388,7 +62858,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2022</v>
+        <v>2104</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -62413,7 +62883,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2023</v>
+        <v>2105</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -62438,7 +62908,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2024</v>
+        <v>2106</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -62463,7 +62933,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2025</v>
+        <v>2107</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -62488,7 +62958,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2026</v>
+        <v>2108</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -62513,7 +62983,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2027</v>
+        <v>2109</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -62538,7 +63008,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2028</v>
+        <v>2110</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -62563,7 +63033,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1796</v>
+        <v>1885</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -62588,7 +63058,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2029</v>
+        <v>2111</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -62613,7 +63083,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2030</v>
+        <v>2112</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -62638,7 +63108,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2031</v>
+        <v>2113</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -62663,7 +63133,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2032</v>
+        <v>2114</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -62688,7 +63158,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
-        <v>2033</v>
+        <v>2115</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -62713,7 +63183,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2034</v>
+        <v>2116</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -62738,7 +63208,7 @@
     </row>
     <row r="51" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="s">
-        <v>2035</v>
+        <v>2117</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -62763,7 +63233,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>2036</v>
+        <v>2118</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -62788,7 +63258,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>2037</v>
+        <v>2119</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -62813,7 +63283,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>2038</v>
+        <v>2120</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -62838,7 +63308,7 @@
     </row>
     <row r="55" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
-        <v>2039</v>
+        <v>2121</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -62863,7 +63333,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>2040</v>
+        <v>2122</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -62888,7 +63358,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>2041</v>
+        <v>2123</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -62913,7 +63383,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>2042</v>
+        <v>2124</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -62938,7 +63408,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>2043</v>
+        <v>2125</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -62963,7 +63433,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>2044</v>
+        <v>2126</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -62988,7 +63458,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>2045</v>
+        <v>2127</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -63013,7 +63483,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>2046</v>
+        <v>2128</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -63038,7 +63508,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>2047</v>
+        <v>2129</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -63063,7 +63533,7 @@
     </row>
     <row r="64" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5" t="s">
-        <v>2048</v>
+        <v>2130</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -63088,7 +63558,7 @@
     </row>
     <row r="65" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="5" t="s">
-        <v>2049</v>
+        <v>2131</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -63113,7 +63583,7 @@
     </row>
     <row r="66" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="5" t="s">
-        <v>2050</v>
+        <v>2132</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
